--- a/biology/Botanique/Aphyllanthaceae/Aphyllanthaceae.xlsx
+++ b/biology/Botanique/Aphyllanthaceae/Aphyllanthaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Aphyllanthacées regroupe des plantes monocotylédones ; elle ne comprend qu'une espèce, Aphyllanthes monspeliensis, l'aphyllanthe de Montpellier.
 C'est une plante herbacée, à feuilles réduites en écailles, à rosette, des zones arides de l'ouest du bassin méditerranéen.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Aphyllanthes, qui vient du grec αφυλλος  / aphyllos, « qui n’a pas de feuilles » et  ανθος  / anthos, fleur, en référence à la plante qui ressemblant à un jonc semble être dépourvue de feuilles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Aphyllanthes, qui vient du grec αφυλλος  / aphyllos, « qui n’a pas de feuilles » et  ανθος  / anthos, fleur, en référence à la plante qui ressemblant à un jonc semble être dépourvue de feuilles.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En classification classique de Cronquist (1981)[2] la famille n'existe pas et les plantes sont assignées aux Liliacées.
-En classification phylogénétique APG II (2003)[3] cette famille est optionnelle : ces plantes peuvent aussi être intégrées à une plus vaste famille, celle des Asparagacées.
-En classification phylogénétique APG III (2009)[4] cette famille est invalide et ses genres sont incorporés dans la famille Asparagaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification classique de Cronquist (1981) la famille n'existe pas et les plantes sont assignées aux Liliacées.
+En classification phylogénétique APG II (2003) cette famille est optionnelle : ces plantes peuvent aussi être intégrées à une plus vaste famille, celle des Asparagacées.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Asparagaceae.
 </t>
         </is>
       </c>
